--- a/exp3/Dados.xlsx
+++ b/exp3/Dados.xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="Resistor" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Diodo (mA)" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Diodo (microA)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Diodo" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjXU1wg4Rqj1ziaDL/9lU9t2TK3yg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgW8A+h85aiZm/kWckDo29Xjip/mQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Voltímetro (V)</t>
   </si>
@@ -26,14 +27,20 @@
     <t>Amperímetro (mA)</t>
   </si>
   <si>
+    <t>Resistência (ohm)</t>
+  </si>
+  <si>
     <t>Amperímetro</t>
+  </si>
+  <si>
+    <t>lnR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -43,6 +50,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -67,6 +79,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -84,6 +100,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -298,8 +318,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -309,6 +332,10 @@
       <c r="B2" s="1">
         <v>-99.0</v>
       </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C23" si="1">1000*A2/B2</f>
+        <v>100.2020202</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -317,6 +344,10 @@
       <c r="B3" s="1">
         <v>-81.2</v>
       </c>
+      <c r="C3" s="4">
+        <f t="shared" si="1"/>
+        <v>100.1231527</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
@@ -325,6 +356,10 @@
       <c r="B4" s="1">
         <v>-59.87</v>
       </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>100.3841657</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
@@ -333,6 +368,10 @@
       <c r="B5" s="1">
         <v>-40.13</v>
       </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>101.0465986</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -341,6 +380,10 @@
       <c r="B6" s="1">
         <v>-35.68</v>
       </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>98.34641256</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -349,6 +392,10 @@
       <c r="B7" s="1">
         <v>-29.61</v>
       </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>101.350895</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
@@ -357,6 +404,10 @@
       <c r="B8" s="1">
         <v>-24.8</v>
       </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>100.9274194</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -365,6 +416,10 @@
       <c r="B9" s="1">
         <v>-19.8</v>
       </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>101.1111111</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
@@ -373,6 +428,10 @@
       <c r="B10" s="1">
         <v>-14.9</v>
       </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>102.0134228</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -381,6 +440,10 @@
       <c r="B11" s="1">
         <v>-10.2</v>
       </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>100.9803922</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
@@ -389,6 +452,10 @@
       <c r="B12" s="1">
         <v>-4.92</v>
       </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>101.4227642</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
@@ -397,6 +464,10 @@
       <c r="B13" s="1">
         <v>5.03</v>
       </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>101.3916501</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
@@ -405,6 +476,10 @@
       <c r="B14" s="1">
         <v>10.37</v>
       </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>101.3500482</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -413,6 +488,10 @@
       <c r="B15" s="1">
         <v>15.31</v>
       </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>101.3716525</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -421,6 +500,10 @@
       <c r="B16" s="1">
         <v>20.46</v>
       </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>101.3685239</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -429,6 +512,10 @@
       <c r="B17" s="1">
         <v>25.04</v>
       </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>101.2779553</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -437,6 +524,10 @@
       <c r="B18" s="1">
         <v>30.49</v>
       </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>101.2791079</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -445,6 +536,10 @@
       <c r="B19" s="1">
         <v>35.09</v>
       </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>101.2254203</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -453,6 +548,10 @@
       <c r="B20" s="1">
         <v>39.82</v>
       </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>101.2556504</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -461,6 +560,10 @@
       <c r="B21" s="1">
         <v>59.81</v>
       </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>100.1504765</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -469,6 +572,10 @@
       <c r="B22" s="1">
         <v>80.7</v>
       </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
@@ -476,6 +583,10 @@
       </c>
       <c r="B23" s="1">
         <v>100.4</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>99.40239044</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -1478,6 +1589,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1488,6 +1602,10 @@
       <c r="B2" s="1">
         <v>0.0</v>
       </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C22" si="1">1000*A2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -1496,6 +1614,10 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
@@ -1504,6 +1626,10 @@
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
@@ -1512,6 +1638,10 @@
       <c r="B5" s="1">
         <v>0.0</v>
       </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -1520,6 +1650,10 @@
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -1528,6 +1662,10 @@
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
@@ -1536,6 +1674,10 @@
       <c r="B8" s="1">
         <v>0.22</v>
       </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>2381.818182</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -1544,6 +1686,10 @@
       <c r="B9" s="1">
         <v>3.07</v>
       </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>208.1433225</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
@@ -1552,6 +1698,10 @@
       <c r="B10" s="1">
         <v>4.06</v>
       </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>160.3448276</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -1560,6 +1710,10 @@
       <c r="B11" s="1">
         <v>5.54</v>
       </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>120.0361011</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
@@ -1568,6 +1722,10 @@
       <c r="B12" s="1">
         <v>10.03</v>
       </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>68.89332004</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
@@ -1576,6 +1734,10 @@
       <c r="B13" s="1">
         <v>21.05</v>
       </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>34.29928741</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
@@ -1584,6 +1746,10 @@
       <c r="B14" s="1">
         <v>30.57</v>
       </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>24.14131501</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -1592,6 +1758,10 @@
       <c r="B15" s="1">
         <v>40.5</v>
       </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>18.49382716</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -1600,6 +1770,10 @@
       <c r="B16" s="1">
         <v>50.3</v>
       </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>15.0695825</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -1608,6 +1782,10 @@
       <c r="B17" s="1">
         <v>60.9</v>
       </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>12.56157635</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -1616,6 +1794,10 @@
       <c r="B18" s="1">
         <v>70.1</v>
       </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>10.99857347</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -1624,6 +1806,10 @@
       <c r="B19" s="1">
         <v>80.4</v>
       </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>9.651741294</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -1632,6 +1818,10 @@
       <c r="B20" s="1">
         <v>99.8</v>
       </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>7.865731463</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -1640,6 +1830,10 @@
       <c r="B21" s="1">
         <v>121.0</v>
       </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>6.553719008</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -1647,6 +1841,10 @@
       </c>
       <c r="B22" s="1">
         <v>140.9</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.670688432</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2650,6 +2848,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2660,6 +2861,10 @@
       <c r="B2" s="1">
         <v>0.0</v>
       </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C8" si="1">1000000*A2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -2668,6 +2873,10 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
@@ -2676,6 +2885,10 @@
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
@@ -2684,6 +2897,10 @@
       <c r="B5" s="1">
         <v>0.0</v>
       </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -2692,6 +2909,10 @@
       <c r="B6" s="1">
         <v>12.4</v>
       </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>34919.35484</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -2700,6 +2921,10 @@
       <c r="B7" s="1">
         <v>13.7</v>
       </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>31824.81752</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
@@ -2707,6 +2932,10 @@
       </c>
       <c r="B8" s="1">
         <v>32.6</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>14631.90184</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
@@ -3704,4 +3933,493 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>-15.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C6" si="1">1000*A2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" ref="D2:D28" si="2">LN(C2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>-5.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" ref="C7:C10" si="3">1000000*A7/B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>0.282</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>0.319</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:C28" si="4">1000*A11/B11</f>
+        <v>34919.35484</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>10.46079653</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.0137</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="4"/>
+        <v>31824.81752</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>10.36800169</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>0.477</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.0326</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>14631.90184</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>9.590959481</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>0.524</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="4"/>
+        <v>2381.818182</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>7.775619417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>0.639</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="4"/>
+        <v>208.1433225</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>5.338226893</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>0.651</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.06</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="4"/>
+        <v>160.3448276</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.077326669</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>0.665</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="4"/>
+        <v>120.0361011</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.78779254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>0.691</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.03</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="4"/>
+        <v>68.89332004</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.232559222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>0.722</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="4"/>
+        <v>34.29928741</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>3.535124579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>0.738</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30.57</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="4"/>
+        <v>24.14131501</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>3.183924689</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>0.749</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="4"/>
+        <v>18.49382716</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>2.917437009</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>0.758</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="4"/>
+        <v>15.0695825</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>2.712678309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>0.765</v>
+      </c>
+      <c r="B23" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="4"/>
+        <v>12.56157635</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>2.530642659</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>0.771</v>
+      </c>
+      <c r="B24" s="1">
+        <v>70.1</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="4"/>
+        <v>10.99857347</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>2.39776558</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>0.776</v>
+      </c>
+      <c r="B25" s="1">
+        <v>80.4</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="4"/>
+        <v>9.651741294</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>2.267138344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>0.785</v>
+      </c>
+      <c r="B26" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="4"/>
+        <v>7.865731463</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>2.062515534</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>0.793</v>
+      </c>
+      <c r="B27" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="4"/>
+        <v>6.553719008</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>1.880032676</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>0.799</v>
+      </c>
+      <c r="B28" s="1">
+        <v>140.9</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="4"/>
+        <v>5.670688432</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.735310527</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>